--- a/public/assets/templates/schedule_format.xlsx
+++ b/public/assets/templates/schedule_format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cinta Ramayanti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\WaveCoach\Backend\wavecoach\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B09A4323-3A2B-41A6-B749-DED35196D1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A240210-476E-46E0-92AD-7713681532C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D47D8282-4B4B-4F9C-8BAF-09BC66F163C1}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>User Emails</t>
-  </si>
-  <si>
     <t>coach2@gmail.com</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>25006,25008,25003</t>
+  </si>
+  <si>
+    <t>NIS</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -472,12 +472,12 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>4654</v>
@@ -492,12 +492,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>5496</v>
